--- a/outputs/CHENNAI3.xlsx
+++ b/outputs/CHENNAI3.xlsx
@@ -424,9 +424,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations 2. Information Processing Style 3. Computer Self-Efficacy
-Why: Abi may not have thought to look for a list of issues under the "Repository" section, as it is not explicitly clear from the page that this section contains the issue list. Abi prefers a more direct and guided approach to finding information. The information processing style of Abi indicates that they need comprehensive information to form a complete understanding before proceeding. Additionally, Abi's lower computer self-efficacy could make them hesitant to explore sections without clear indications that they contain the needed information.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The list of issues is a common feature in repositories, and ABI is motivated to find and solve issues. The "Issues" tab is clearly visible in the left sidebar, which aligns with ABI's comprehensive information processing style, as it is a logical step to look for issues in a repository.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style 6. None of the Above
-Why: The "Issues" section is clearly labeled on the left sidebar, and the list of issues is immediately visible upon clicking it. This aligns with Abi's comprehensive information processing style, as the page provides a clear and detailed list of issues, making it easy for Abi to understand what to do at this step without needing to explore further or guess. The content is straightforward and directly relevant to the task, reducing any potential confusion or hesitation.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" tab is clearly visible in the left sidebar, and the list of issues is prominently displayed on the page. This aligns with ABI's motivation to find and solve issues and her comprehensive information processing style. The page provides a clear and straightforward way to access the list of issues, making it easy for ABI to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style 6. None of the Above
-Why: After clicking on "Issues" and landing on the page, Abi will see a clear, organized list of issues. The page is well-structured, and the issues are listed with relevant details such as titles, labels, and dates, which align with Abi's need for comprehensive information. This will confirm to Abi that they have done the right thing and are making progress toward their goal of finding an issue to solve. The detailed list provides all the necessary information for Abi to proceed with selecting an issue to work on.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Issues" tab, ABI will land on a page that clearly displays a list of issues. This page provides comprehensive information about each issue, including titles, status (open or closed), and timestamps. This aligns with ABI's motivation to find and solve issues and her comprehensive information processing style, as she will have all the necessary information to proceed with selecting an issue to solve. The clear layout and detailed information will help ABI know that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations 2. Information Processing Style
-Why: Abi is motivated to accomplish their task of finding an issue to solve. Seeing the list of issues, Abi will naturally understand that selecting the most appropriate issue is a step toward this goal. The page provides detailed information about each issue, which aligns with Abi's comprehensive information processing style, allowing them to gather all necessary details to make an informed decision on which issue to address. This step is a logical progression in achieving the overall use case.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Finding the most appropriate issue to solve is a logical and necessary step toward achieving the overall use case of solving an issue. ABI is motivated to find and solve issues, and her comprehensive information processing style means she will consider this step essential to ensure she selects an issue that is suitable for her to work on. The page provides a clear list of issues with relevant details, which will help ABI in making an informed decision.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style 6. None of the Above
-Why: The page is well-organized and presents a clear list of issues, each with a title, labels, and relevant details. This aligns with Abi's comprehensive information processing style, as they can read through the issues and gather all necessary information to determine the most appropriate one to solve. The structured presentation of information makes it easy for Abi to know what to do at this step without additional guidance. The page provides enough context for Abi to understand the task and select an issue to address.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists the issues with relevant details such as titles, status, and timestamps. ABI is motivated to find and solve issues, and her comprehensive information processing style means she will read through the issues to find the most appropriate one. The layout and information provided on the page are sufficient for ABI to understand what to do at this step and to take the action of reading through the issues.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style 6. None of the Above
-Why: If Abi reads through the issues on this page, they will see detailed information about each issue, including titles, labels, and dates. This comprehensive presentation of information aligns with Abi's information processing style, allowing them to determine if they are making progress toward their goal of finding an appropriate issue to solve. The page clearly shows the status and details of each issue, which provides the necessary context for Abi to confirm they are on the right track and have all the information needed to make a decision.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides a list of issues, the information might not be comprehensive enough for ABI to determine if she is making progress toward her goal. ABI's comprehensive information processing style means she needs detailed information to feel confident in her actions. The issue titles and brief descriptions may not provide enough context for ABI to fully understand the scope and requirements of each issue. Additionally, ABI's low computer self-efficacy might make her uncertain if she has chosen the right issue without more detailed guidance or information.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style 6. None of the Above
-Why: The issues are clearly listed with specific titles and labels, making it evident that clicking on an issue will provide more detailed information about that particular issue. Abi, with a comprehensive information processing style, will understand that clicking on the issue number (#136) is the next logical step to gather more information and assess if it is appropriate to solve. The page layout and labeling are intuitive and provide clear indications of what to do next.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists the issues with clickable links, including issue #136. ABI is motivated to find and solve issues, and her comprehensive information processing style means she will likely click on an issue to get more detailed information. The layout and information provided on the page are sufficient for ABI to understand that clicking on an issue will provide more details, making it clear what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style 6. None of the Above
-Why: After clicking on issue #136, Abi will be directed to a detailed view of the issue. This page provides comprehensive information about the issue, including a description, instructions, and activity history. This aligns with Abi's need for detailed and complete information to understand the task fully. The clarity and organization of the information on the page will help Abi know that they have done the right thing and are making progress toward their goal. All necessary details to evaluate and work on the issue are provided, ensuring Abi feels confident and informed in their next steps.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on issue #136, ABI will land on a page that provides detailed information about the issue, including the specific tasks required to resolve it. This aligns with ABI's motivation to find and solve issues and her comprehensive information processing style, as she will have all the necessary details to understand the issue and determine if it is appropriate for her to solve. The clear and detailed layout of the issue page will help ABI know that she is making progress toward her goal and has all the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI3.xlsx
+++ b/outputs/CHENNAI3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. ABI is looking to find a list of issues, and this page does not explicitly indicate where to find issues. Given ABI's motivation to accomplish tasks efficiently and their comprehensive information processing style, they would likely not consider this page as a step toward finding the list of issues. Additionally, ABI's low computer self-efficacy means they might not feel confident navigating through unfamiliar sections without clear guidance.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to a list of issues. ABI, who prefers comprehensive information and is risk-averse, would not likely think to look here for a list of issues. The page does not provide any explicit guidance or steps toward finding issues, which would make ABI feel uncertain and less confident about proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly shows a list of issues under the "Issues" section in the left sidebar. The "Issues" tab is prominently displayed and labeled, making it easy for ABI to identify and understand that clicking on "Issues" will lead to the list of issues. This aligns with ABI's comprehensive information processing style and preference for clear, step-by-step processes. The page provides a straightforward path to the desired information, which should make ABI feel confident in taking this action.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly shows a list of issues under the "Issues" section, which aligns with ABI's goal of finding an issue to solve. The "Issues" tab is prominently displayed in the left-hand navigation menu, making it easy for ABI to identify and click on it. The page layout is straightforward and not overwhelming, which helps ABI feel confident in taking this action. The presence of the issues list directly supports ABI's motivation to find an issue to solve.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues," ABI will land on a page that clearly lists the issues, which is exactly what they are looking for. The page is well-organized, with issues displayed in a list format, including relevant details such as titles, status (open/closed), and dates. This clear presentation aligns with ABI's motivation to accomplish tasks efficiently and their comprehensive information processing style. ABI will know they are making progress toward their goal of finding an issue to solve and will have all the necessary information to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Upon landing on the page, ABI will see a clear list of issues, which directly aligns with the subgoal of finding a list of issues. The page is well-organized, with issues categorized and displayed prominently, making it easy for ABI to understand that they have made progress toward their goal. The presence of various issues, along with their titles and statuses, provides comprehensive information that ABI needs to proceed further. This clear and structured presentation will help ABI feel confident that they are on the right track.</t>
         </is>
       </c>
     </row>
@@ -453,16 +453,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page displays a list of issues, which is a logical next step for ABI to find the most appropriate issue to solve. ABI is motivated to accomplish their task efficiently, and this page provides a clear and organized list of issues, including relevant details such as titles, status, and dates. This aligns with ABI's comprehensive information processing style, as they can review the list and gather the necessary information to identify the most appropriate issue to solve. Therefore, ABI would consider this a step toward achieving the overall use case.</t>
+Why: The page displays a list of issues, which is a logical next step for ABI to find the most appropriate issue to solve. ABI is motivated to find an issue to work on, and seeing a list of issues directly supports this goal. The comprehensive display of issues, including their titles and statuses, aligns with ABI's information processing style, allowing them to gather the necessary information to make an informed decision. This step is clearly part of the process toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-organized and clearly lists the issues with relevant details such as titles, status (open/closed), and dates. This layout makes it straightforward for ABI to read through the issues and identify an appropriate one to solve. ABI's motivation to accomplish tasks efficiently and their comprehensive information processing style will guide them to read through the list methodically. The page provides all the necessary information in a clear and accessible manner, making it easy for ABI to take this action.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page does list various issues, it does not provide any specific guidance or categorization to help ABI identify which issues are appropriate for a newcomer. ABI prefers comprehensive information and may feel overwhelmed by the need to read through each issue to determine its suitability. Additionally, without clear indicators or labels for newcomer-friendly issues, ABI's low computer self-efficacy may lead to uncertainty and hesitation in proceeding. The lack of explicit instructions or filtering options makes it difficult for ABI to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -471,25 +471,25 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page does list issues with titles, status, and dates, it may not provide enough detailed information for ABI to determine if an issue is appropriate to solve. ABI's comprehensive information processing style means they need detailed information to make informed decisions. The titles and brief descriptions might not be sufficient for ABI to feel confident that they have all the necessary information. Additionally, ABI's low computer self-efficacy might make them hesitant to proceed without more detailed guidance or information. Therefore, ABI might not feel they have made sufficient progress toward their goal or have all the information they need.</t>
+Why: While ABI may be able to read through the issues, the page does not provide specific indicators or labels to help identify which issues are appropriate for newcomers. ABI prefers comprehensive information and may not feel confident that they have found the most appropriate issue without clear guidance. The lack of explicit information or categorization for newcomer-friendly issues means ABI might not be sure they are making progress toward their goal. This uncertainty, combined with ABI's low computer self-efficacy, makes it difficult for ABI to feel assured that they have done the right thing and have all the information they need.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly lists the issues with clickable titles, making it intuitive for ABI to click on an issue to get more details. The issue numbers and titles are prominently displayed, and it is a common practice in issue tracking systems to click on an issue to view more information. This aligns with ABI's comprehensive information processing style, as they would naturally want to gather more information about a specific issue. The page design supports ABI's process-oriented learning style by providing a clear and straightforward way to access more detailed information about each issue.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page lists multiple issues, but there is no specific indication that clicking on issue #136 will provide the information ABI needs to determine if it is appropriate for a newcomer. ABI prefers comprehensive information and may not feel confident about clicking on an issue without knowing what to expect. Additionally, ABI's low computer self-efficacy and preference for process-oriented learning mean they are less likely to take actions without clear instructions or guidance. The page does not provide enough context or direction for ABI to feel assured that clicking on issue #136 is the right step.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the description, steps to reproduce, and potential solutions. This detailed view aligns with ABI's comprehensive information processing style, allowing them to gather all necessary information to determine if this is the most appropriate issue to solve. The clear presentation of information and the logical structure of the page will help ABI feel confident that they are making progress toward their goal and have all the information they need.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on issue #136, ABI will see detailed information about the issue. However, the page does not provide any specific indication that this issue is appropriate for a newcomer. The information presented is technical and may be overwhelming for ABI, who prefers comprehensive and clear guidance. ABI's low computer self-efficacy means they may not feel confident in their ability to assess whether this issue is suitable for them. Without explicit labels or guidance indicating that this issue is newcomer-friendly, ABI may not feel assured that they are making progress toward their goal or have all the information they need.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI3.xlsx
+++ b/outputs/CHENNAI3.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to a list of issues. ABI, who prefers comprehensive information and is risk-averse, would not likely think to look here for a list of issues. The page does not provide any explicit guidance or steps toward finding issues, which would make ABI feel uncertain and less confident about proceeding.</t>
+Facets: 1. Motivations, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with a list of files and some information about the project. ABI is looking for a list of issues to solve, but this page does not explicitly indicate where to find issues. Given ABI's low confidence in unfamiliar computing tasks and risk-averse nature, they are unlikely to think of this page as a step toward finding a list of issues. The page does not provide clear guidance or direct links to an "Issues" section, which would be necessary for ABI to feel confident in proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page clearly shows a list of issues under the "Issues" section, which aligns with ABI's goal of finding an issue to solve. The "Issues" tab is prominently displayed in the left-hand navigation menu, making it easy for ABI to identify and click on it. The page layout is straightforward and not overwhelming, which helps ABI feel confident in taking this action. The presence of the issues list directly supports ABI's motivation to find an issue to solve.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Issues" tab is clearly labeled in the left-hand navigation menu, which aligns with ABI's comprehensive information processing style. This clear labeling provides ABI with the necessary information to understand that clicking on "Issues" will likely lead to a list of issues. Despite ABI's low computer self-efficacy, the explicit labeling and familiar interface elements (like a navigation menu) make it straightforward for ABI to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Upon landing on the page, ABI will see a clear list of issues, which directly aligns with the subgoal of finding a list of issues. The page is well-organized, with issues categorized and displayed prominently, making it easy for ABI to understand that they have made progress toward their goal. The presence of various issues, along with their titles and statuses, provides comprehensive information that ABI needs to proceed further. This clear and structured presentation will help ABI feel confident that they are on the right track.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon clicking the "Issues" tab, ABI is taken to a page that clearly lists various issues, which directly aligns with the subgoal of finding a list of issues to solve. The page is well-organized, with issues categorized and labeled, making it easy for ABI to understand that they have made progress toward their goal. The comprehensive list and clear presentation of issues provide ABI with the necessary information to proceed, aligning with their information processing style and motivation to accomplish the task.</t>
         </is>
       </c>
     </row>
@@ -453,43 +453,43 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page displays a list of issues, which is a logical next step for ABI to find the most appropriate issue to solve. ABI is motivated to find an issue to work on, and seeing a list of issues directly supports this goal. The comprehensive display of issues, including their titles and statuses, aligns with ABI's information processing style, allowing them to gather the necessary information to make an informed decision. This step is clearly part of the process toward achieving the overall use case.</t>
+Why: The page clearly lists various issues, which is a direct step toward finding the most appropriate issue to solve. ABI is motivated to find an issue to solve, and this page provides a comprehensive list of issues, aligning with their information processing style. The clear presentation and categorization of issues make it evident that this is a step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page provides a clear and organized list of issues, which aligns with ABI's goal of finding an appropriate issue to solve. The issues are listed with titles and labels, making it straightforward for ABI to read through them and identify which ones might be suitable. This aligns with ABI's comprehensive information processing style, as they can gather detailed information by reading through the list. The page is well-structured and provides the necessary information for ABI to take this action confidently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page does list various issues, it does not provide any specific guidance or categorization to help ABI identify which issues are appropriate for a newcomer. ABI prefers comprehensive information and may feel overwhelmed by the need to read through each issue to determine its suitability. Additionally, without clear indicators or labels for newcomer-friendly issues, ABI's low computer self-efficacy may lead to uncertainty and hesitation in proceeding. The lack of explicit instructions or filtering options makes it difficult for ABI to confidently take this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+Why: While the page lists various issues, it does not provide explicit indicators or labels that identify which issues are appropriate for newcomers. ABI might struggle to determine which issues are suitable without additional guidance or filtering options. Given ABI's comprehensive information processing style, they may feel uncertain about whether they have found the most appropriate issue without clear indicators. Additionally, ABI's low computer self-efficacy might make them doubt their progress if they do not have clear confirmation that they are on the right track.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide any specific indication that clicking on issue #136 will lead to finding the most appropriate issue for a newcomer. ABI, with low computer self-efficacy, might be hesitant to click on an issue without clear guidance or confirmation that it is the right action to take. Additionally, ABI prefers process-oriented learning and might need more explicit instructions or labels indicating that this issue is suitable for newcomers. The lack of such information on the page makes it unlikely that ABI will confidently know what to do at this step.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While ABI may be able to read through the issues, the page does not provide specific indicators or labels to help identify which issues are appropriate for newcomers. ABI prefers comprehensive information and may not feel confident that they have found the most appropriate issue without clear guidance. The lack of explicit information or categorization for newcomer-friendly issues means ABI might not be sure they are making progress toward their goal. This uncertainty, combined with ABI's low computer self-efficacy, makes it difficult for ABI to feel assured that they have done the right thing and have all the information they need.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page lists multiple issues, but there is no specific indication that clicking on issue #136 will provide the information ABI needs to determine if it is appropriate for a newcomer. ABI prefers comprehensive information and may not feel confident about clicking on an issue without knowing what to expect. Additionally, ABI's low computer self-efficacy and preference for process-oriented learning mean they are less likely to take actions without clear instructions or guidance. The page does not provide enough context or direction for ABI to feel assured that clicking on issue #136 is the right step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on issue #136, ABI will see detailed information about the issue. However, the page does not provide any specific indication that this issue is appropriate for a newcomer. The information presented is technical and may be overwhelming for ABI, who prefers comprehensive and clear guidance. ABI's low computer self-efficacy means they may not feel confident in their ability to assess whether this issue is suitable for them. Without explicit labels or guidance indicating that this issue is newcomer-friendly, ABI may not feel assured that they are making progress toward their goal or have all the information they need.</t>
+Why: After clicking on issue #136, ABI lands on a detailed page about the issue. However, the page does not provide any specific indication that this issue is appropriate for a newcomer. The information is technical and may be overwhelming for ABI, who has low computer self-efficacy and prefers comprehensive information processing. ABI might not feel confident that they have made progress toward their goal without clear labels or guidance indicating that this issue is suitable for newcomers. The lack of such information makes it unlikely that ABI will know they did the right thing and have all the information they need.</t>
         </is>
       </c>
     </row>
